--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_16.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>206.653978975155</v>
+        <v>-2356.366356929764</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>17.21125316006356</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5.225770250014818</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>171.7038006928061</v>
       </c>
       <c r="X2" t="n">
-        <v>135.7138977837578</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83.26784249668242</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>118.7585357297091</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>245.6047143844625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>274.3679979233869</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>120.6267341594355</v>
+        <v>86.83682800046323</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>54.87392370804569</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>172.6042001150214</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>100.0241316558544</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>140.6899705207321</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.246821098626</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>1.799772605718476</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>22.65115569188787</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>41.74133133758715</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>57.24347904696366</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>107.4021082756238</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.885306725550132e-12</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>147.6895341487389</v>
+        <v>262.3533880026686</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>181.1911789297516</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>109.040488224226</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7971820797026</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>71.60395572454149</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,13 +3190,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>71.60395572454127</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,16 +3427,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>19.91555826189102</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>188.7692896015406</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>144.9604756260741</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>124.0908577194979</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1473.600954523935</v>
+        <v>1624.021037608698</v>
       </c>
       <c r="C2" t="n">
-        <v>1104.638437583523</v>
+        <v>1606.635933406614</v>
       </c>
       <c r="D2" t="n">
-        <v>746.3727389767729</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E2" t="n">
-        <v>360.5844863785287</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F2" t="n">
-        <v>355.3059305704328</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V2" t="n">
-        <v>2353.59368700598</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="W2" t="n">
-        <v>2000.825031735866</v>
+        <v>2010.62087767282</v>
       </c>
       <c r="X2" t="n">
-        <v>1863.740286499747</v>
+        <v>2010.62087767282</v>
       </c>
       <c r="Y2" t="n">
-        <v>1473.600954523935</v>
+        <v>2010.62087767282</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>312.4344762351467</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>607.1380332666183</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>970.4000522258383</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N3" t="n">
-        <v>1357.685180822783</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>682.9724752679349</v>
+        <v>1250.98160625599</v>
       </c>
       <c r="C4" t="n">
-        <v>514.036292340028</v>
+        <v>1250.98160625599</v>
       </c>
       <c r="D4" t="n">
-        <v>514.036292340028</v>
+        <v>1250.98160625599</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>1250.98160625599</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>1250.98160625599</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>1082.995141564268</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936614</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294982</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496682</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.862713590079</v>
+        <v>2365.710580560017</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>2142.732099754752</v>
       </c>
       <c r="U4" t="n">
-        <v>1021.765895288652</v>
+        <v>1853.61376225859</v>
       </c>
       <c r="V4" t="n">
-        <v>767.0814070827656</v>
+        <v>1598.929274052703</v>
       </c>
       <c r="W4" t="n">
-        <v>767.0814070827656</v>
+        <v>1598.929274052703</v>
       </c>
       <c r="X4" t="n">
-        <v>767.0814070827656</v>
+        <v>1370.939723154686</v>
       </c>
       <c r="Y4" t="n">
-        <v>767.0814070827656</v>
+        <v>1250.98160625599</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1026.041751680663</v>
+        <v>1454.537269016651</v>
       </c>
       <c r="C5" t="n">
-        <v>1026.041751680663</v>
+        <v>1454.537269016651</v>
       </c>
       <c r="D5" t="n">
-        <v>1026.041751680663</v>
+        <v>1096.271570409901</v>
       </c>
       <c r="E5" t="n">
-        <v>777.9561815953474</v>
+        <v>710.4833178116564</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
@@ -4568,10 +4568,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4595,22 +4595,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.01262627016</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>1768.949738926589</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W5" t="n">
-        <v>1416.181083656475</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="X5" t="n">
-        <v>1416.181083656475</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="Y5" t="n">
-        <v>1026.041751680663</v>
+        <v>1841.137109080773</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4632,37 +4632,37 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495377</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105703</v>
+        <v>1861.38035112061</v>
       </c>
       <c r="O6" t="n">
-        <v>1800.470091281865</v>
+        <v>2193.450786296772</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2440.633520129069</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4683,7 +4683,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>446.933583949963</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="C7" t="n">
-        <v>446.933583949963</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="D7" t="n">
-        <v>446.933583949963</v>
+        <v>709.4543573264536</v>
       </c>
       <c r="E7" t="n">
-        <v>446.933583949963</v>
+        <v>561.5412637440605</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
         <v>157.1019332386098</v>
@@ -4723,52 +4723,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234358</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1439.817372234358</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V7" t="n">
-        <v>1185.132884028471</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="W7" t="n">
-        <v>895.7157139915105</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="X7" t="n">
-        <v>667.7261630934931</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="Y7" t="n">
-        <v>446.933583949963</v>
+        <v>859.5709967387894</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1146.918698535759</v>
+        <v>880.6454412161675</v>
       </c>
       <c r="C8" t="n">
-        <v>777.9561815953474</v>
+        <v>880.6454412161675</v>
       </c>
       <c r="D8" t="n">
-        <v>777.9561815953474</v>
+        <v>522.379742609417</v>
       </c>
       <c r="E8" t="n">
-        <v>777.9561815953474</v>
+        <v>522.379742609417</v>
       </c>
       <c r="F8" t="n">
-        <v>366.9702768057398</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872913</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2263.292444042765</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2263.292444042765</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2263.292444042765</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1910.523788772651</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X8" t="n">
-        <v>1537.058030511571</v>
+        <v>1270.784773191979</v>
       </c>
       <c r="Y8" t="n">
-        <v>1146.918698535759</v>
+        <v>880.6454412161675</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
@@ -4878,28 +4878,28 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1218.104987164206</v>
+        <v>970.4000522258383</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1357.685180822783</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>768.6303371471284</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="C10" t="n">
-        <v>768.6303371471284</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D10" t="n">
-        <v>768.6303371471284</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1535.411643654442</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1535.411643654442</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1312.433162849178</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1023.314825353015</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V10" t="n">
-        <v>768.6303371471284</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W10" t="n">
-        <v>768.6303371471284</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="X10" t="n">
-        <v>768.6303371471284</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="Y10" t="n">
-        <v>768.6303371471284</v>
+        <v>530.9249843929716</v>
       </c>
     </row>
     <row r="11">
@@ -5033,46 +5033,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>579.1554649516144</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1176.533952578166</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121667</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>343.0994656851783</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,55 +5410,55 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>580.8993044876693</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D16" t="n">
-        <v>430.7826650753335</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E16" t="n">
-        <v>430.7826650753335</v>
+        <v>282.8695714929399</v>
       </c>
       <c r="F16" t="n">
-        <v>283.8927175774231</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="G16" t="n">
-        <v>116.6966182923031</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>135.9796239950296</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
         <v>2264.108249235165</v>
@@ -5476,10 +5476,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5510,34 +5510,34 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>746.8882603249853</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951537</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327652</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630049</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5771,28 +5771,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2530.951795518647</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708852</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429783</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429783</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038328</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179773</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.27973288552</v>
+        <v>1712.457658285589</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679633</v>
+        <v>1457.773170079702</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642672</v>
+        <v>1168.356000042741</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744655</v>
+        <v>940.366449144724</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011249</v>
+        <v>719.5738700011939</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5981,16 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797189</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>961.2628027535235</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6215,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>813.3497091711304</v>
       </c>
     </row>
     <row r="29">
@@ -6455,10 +6455,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
@@ -6473,37 +6473,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,34 +6713,34 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2307.590151828076</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6932,31 +6932,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>577.8620388433919</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>408.925855915485</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D37" t="n">
-        <v>408.925855915485</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1497.70980375214</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1208.292633715179</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>980.3030828171618</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>759.5105036736317</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,61 +7160,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="41">
@@ -7400,16 +7400,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7494,22 +7494,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2071.718244760802</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1782.643018104999</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1527.958529899112</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1238.541359862152</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1010.551808964134</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>789.7592298206043</v>
       </c>
     </row>
     <row r="44">
@@ -7646,10 +7646,10 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
   </sheetData>
@@ -8058,28 +8058,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>14.25823202432872</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>231.2582814363245</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,22 +8301,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>193.3273467878351</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>6.454437538930151</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,25 +8532,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>14.25823202432861</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>305.1601501039159</v>
       </c>
       <c r="P9" t="n">
-        <v>265.0304328515147</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>-4.115326918609779e-13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -22547,19 +22547,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>348.061638610944</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>401.6502754916966</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>146.8157004124939</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986326</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>117.643557154336</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>39.52450498097839</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012035</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-2.779641435508475e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>110.0033420516642</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>138.4949402405052</v>
+        <v>23.83108638657552</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405073</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>37.39347442234322</v>
       </c>
     </row>
     <row r="26">
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,10 +24610,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>116.6691671648111</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,16 +24886,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>57.229103921942</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>180.5336875992865</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,13 +25078,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,19 +25123,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>145.801494602747</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610402</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>63.36835372228742</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>73.62417772602069</v>
       </c>
     </row>
     <row r="41">
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>93.31459260779033</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>61.40075786968296</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1019795.326656903</v>
+        <v>1019795.326656904</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1095747.349231632</v>
+        <v>1095747.349231631</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1095747.349231632</v>
+        <v>1095747.349231631</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1095747.349231632</v>
+        <v>1095747.349231631</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1095747.349231632</v>
+        <v>1095747.349231631</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1095747.349231631</v>
+        <v>1095747.349231632</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1095747.349231631</v>
+        <v>1095747.349231632</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1095747.349231631</v>
+        <v>1095747.349231632</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1095747.349231631</v>
+        <v>1095747.349231632</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1095747.349231631</v>
+        <v>1095747.349231632</v>
       </c>
     </row>
   </sheetData>
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>298593.7657794693</v>
+        <v>298593.7657794696</v>
       </c>
       <c r="C2" t="n">
         <v>328416.7079457135</v>
       </c>
       <c r="D2" t="n">
-        <v>328416.7079457134</v>
+        <v>328416.7079457135</v>
       </c>
       <c r="E2" t="n">
-        <v>322858.6398760027</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="F2" t="n">
+        <v>322858.6398760023</v>
+      </c>
+      <c r="G2" t="n">
+        <v>322858.6398760024</v>
+      </c>
+      <c r="H2" t="n">
+        <v>322858.6398760024</v>
+      </c>
+      <c r="I2" t="n">
         <v>322858.6398760025</v>
       </c>
-      <c r="G2" t="n">
-        <v>322858.6398760026</v>
-      </c>
-      <c r="H2" t="n">
-        <v>322858.6398760025</v>
-      </c>
-      <c r="I2" t="n">
-        <v>322858.6398760026</v>
-      </c>
       <c r="J2" t="n">
-        <v>322858.6398760025</v>
+        <v>322858.6398760024</v>
       </c>
       <c r="K2" t="n">
         <v>322858.6398760024</v>
       </c>
       <c r="L2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760025</v>
       </c>
       <c r="M2" t="n">
-        <v>322858.6398760024</v>
+        <v>322858.6398760026</v>
       </c>
       <c r="N2" t="n">
         <v>322858.6398760024</v>
@@ -26353,7 +26353,7 @@
         <v>322858.6398760024</v>
       </c>
       <c r="P2" t="n">
-        <v>322858.6398760026</v>
+        <v>322858.6398760024</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,22 +26381,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89354.84311895956</v>
+        <v>89354.8431189598</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
@@ -26427,37 +26427,37 @@
         <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="G4" t="n">
         <v>6897.424496707361</v>
       </c>
-      <c r="G4" t="n">
-        <v>6897.42449670736</v>
-      </c>
       <c r="H4" t="n">
-        <v>6897.424496707349</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="I4" t="n">
         <v>6897.424496707361</v>
       </c>
       <c r="J4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.424496707335</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.424496707343</v>
+      </c>
+      <c r="M4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="K4" t="n">
-        <v>6897.424496707374</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707368</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.424496707359</v>
-      </c>
       <c r="N4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707343</v>
       </c>
       <c r="O4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-998450.6333552543</v>
+        <v>-998637.0267437935</v>
       </c>
       <c r="C6" t="n">
+        <v>103569.2086742439</v>
+      </c>
+      <c r="D6" t="n">
         <v>103569.2086742438</v>
       </c>
-      <c r="D6" t="n">
-        <v>103569.2086742437</v>
-      </c>
       <c r="E6" t="n">
-        <v>-292646.756069158</v>
+        <v>-292681.4939945936</v>
       </c>
       <c r="F6" t="n">
-        <v>214838.685555388</v>
+        <v>214803.9476299522</v>
       </c>
       <c r="G6" t="n">
-        <v>214838.6855553882</v>
+        <v>214803.9476299522</v>
       </c>
       <c r="H6" t="n">
-        <v>214838.685555388</v>
+        <v>214803.9476299521</v>
       </c>
       <c r="I6" t="n">
-        <v>214838.6855553882</v>
+        <v>214803.9476299525</v>
       </c>
       <c r="J6" t="n">
-        <v>47233.50774540553</v>
+        <v>47198.76981996972</v>
       </c>
       <c r="K6" t="n">
-        <v>214838.685555388</v>
+        <v>214803.947629952</v>
       </c>
       <c r="L6" t="n">
-        <v>214838.6855553879</v>
+        <v>214803.9476299523</v>
       </c>
       <c r="M6" t="n">
-        <v>82231.39182646114</v>
+        <v>82196.65390102583</v>
       </c>
       <c r="N6" t="n">
-        <v>214838.6855553879</v>
+        <v>214803.9476299523</v>
       </c>
       <c r="O6" t="n">
-        <v>214838.6855553879</v>
+        <v>214803.9476299525</v>
       </c>
       <c r="P6" t="n">
-        <v>214838.6855553879</v>
+        <v>214803.9476299523</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26793,37 +26793,37 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000386</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>177.5371680246069</v>
       </c>
       <c r="X2" t="n">
-        <v>234.0172028947112</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96.56413768525488</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>99.82611762238569</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>136.3256556877993</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>132.5080478183245</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27777,19 +27777,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.79431386349577</v>
+        <v>58.58422002246802</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27853,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>352.0021220336657</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>34.05398486521236</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.533440763719241</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>77.89468283136264</v>
       </c>
     </row>
     <row r="11">
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28485,7 +28485,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-2.430161791044281e-12</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28965,7 +28965,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>-5.684341886080801e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>300.7687781170413</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>307.9814458135821</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,13 +32549,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>168.0123247135882</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>163.5723821283055</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>485.927610870024</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157699</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>652.0478969157699</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34214,10 +34214,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>200.8457282678135</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>622.4553810291984</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O6" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>443.0068759113673</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>122.9351598697847</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>381.189564306369</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P9" t="n">
-        <v>514.7099619750469</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>169.427066033708</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394598</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>169.427066033708</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36118,7 +36118,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396415</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.4543240367771</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191315</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,28 +36668,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>351.9532034556937</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>509.9138629937516</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37862,10 +37862,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,13 +37874,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
